--- a/data/trans_orig/IP07A15-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A15-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AE744A4-4725-4ABE-8455-30528D11C552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B642F88C-17D8-4E73-A941-4420FB48F1F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{5A26E74E-EABB-48D6-A21A-3BD6114FF070}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{4F40FCDF-B697-40D7-BB0A-0E6D34AA07A0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -67,10 +67,253 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>Algunas veces</t>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
   </si>
   <si>
     <t>12,66%</t>
@@ -100,33 +343,6 @@
     <t>13,08%</t>
   </si>
   <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
     <t>36,55%</t>
   </si>
   <si>
@@ -154,30 +370,6 @@
     <t>44,97%</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
     <t>50,09%</t>
   </si>
   <si>
@@ -205,126 +397,129 @@
     <t>55,91%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
     <t>9,56%</t>
   </si>
   <si>
@@ -352,24 +547,6 @@
     <t>16,42%</t>
   </si>
   <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
     <t>43,85%</t>
   </si>
   <si>
@@ -397,15 +574,6 @@
     <t>48,37%</t>
   </si>
   <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
     <t>45,89%</t>
   </si>
   <si>
@@ -430,172 +598,37 @@
     <t>39,58%</t>
   </si>
   <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
   </si>
   <si>
     <t>10,61%</t>
@@ -625,24 +658,6 @@
     <t>12,12%</t>
   </si>
   <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
     <t>40,77%</t>
   </si>
   <si>
@@ -670,21 +685,6 @@
     <t>43,54%</t>
   </si>
   <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
     <t>47,8%</t>
   </si>
   <si>
@@ -715,6 +715,195 @@
     <t>Menores según frecuencia de que los padres tubiesen suficiente tiempo par él/ella en 2012 (Tasa respuesta: 44,64%)</t>
   </si>
   <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
     <t>7,21%</t>
   </si>
   <si>
@@ -742,12 +931,6 @@
     <t>12,27%</t>
   </si>
   <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
     <t>40,29%</t>
   </si>
   <si>
@@ -799,103 +982,130 @@
     <t>48,81%</t>
   </si>
   <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
   </si>
   <si>
     <t>9,78%</t>
@@ -925,18 +1135,6 @@
     <t>15,58%</t>
   </si>
   <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
     <t>38,4%</t>
   </si>
   <si>
@@ -964,18 +1162,6 @@
     <t>45,27%</t>
   </si>
   <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
     <t>49,3%</t>
   </si>
   <si>
@@ -1003,190 +1189,25 @@
     <t>55,3%</t>
   </si>
   <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
   </si>
   <si>
     <t>8,62%</t>
@@ -1216,18 +1237,6 @@
     <t>11,6%</t>
   </si>
   <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
     <t>36,84%</t>
   </si>
   <si>
@@ -1255,15 +1264,6 @@
     <t>38,75%</t>
   </si>
   <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
     <t>53,47%</t>
   </si>
   <si>
@@ -1294,6 +1294,192 @@
     <t>Menores según frecuencia de que los padres tubiesen suficiente tiempo par él/ella en 2015 (Tasa respuesta: 47,04%)</t>
   </si>
   <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
     <t>4,5%</t>
   </si>
   <si>
@@ -1303,9 +1489,6 @@
     <t>6,0%</t>
   </si>
   <si>
-    <t>3,04%</t>
-  </si>
-  <si>
     <t>11,17%</t>
   </si>
   <si>
@@ -1318,21 +1501,6 @@
     <t>10,33%</t>
   </si>
   <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
     <t>34,58%</t>
   </si>
   <si>
@@ -1357,9 +1525,6 @@
     <t>42,23%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
     <t>56,39%</t>
   </si>
   <si>
@@ -1387,94 +1552,130 @@
     <t>60,7%</t>
   </si>
   <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
   </si>
   <si>
     <t>2,95%</t>
@@ -1498,21 +1699,6 @@
     <t>11,56%</t>
   </si>
   <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
     <t>38,84%</t>
   </si>
   <si>
@@ -1540,12 +1726,6 @@
     <t>44,8%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
     <t>54,31%</t>
   </si>
   <si>
@@ -1567,184 +1747,22 @@
     <t>47,19%</t>
   </si>
   <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
   </si>
   <si>
     <t>7,17%</t>
@@ -1768,21 +1786,6 @@
     <t>6,32%</t>
   </si>
   <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
     <t>32,94%</t>
   </si>
   <si>
@@ -1805,9 +1808,6 @@
   </si>
   <si>
     <t>39,8%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
   </si>
   <si>
     <t>54,46%</t>
@@ -2226,7 +2226,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B92E822-3004-4994-B0F3-3792E18A4E1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CFB4C5-B0A7-47C7-84D5-041F1EE3FB70}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2344,10 +2344,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>12481</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2359,238 +2359,238 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>7090</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>30</v>
-      </c>
-      <c r="N4" s="7">
-        <v>19570</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>680</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>642</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>1321</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C6" s="7">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>36027</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>43358</v>
+        <v>929</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="M6" s="7">
-        <v>124</v>
+        <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>79384</v>
+        <v>929</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>8240</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I7" s="7">
-        <v>537</v>
+        <v>7026</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N7" s="7">
-        <v>537</v>
+        <v>15266</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C8" s="7">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="D8" s="7">
-        <v>49370</v>
+        <v>5576</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H8" s="7">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="I8" s="7">
-        <v>52367</v>
+        <v>6193</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="M8" s="7">
-        <v>157</v>
+        <v>15</v>
       </c>
       <c r="N8" s="7">
-        <v>101737</v>
+        <v>11769</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2599,108 +2599,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="D9" s="7">
-        <v>98557</v>
+        <v>13816</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H9" s="7">
-        <v>164</v>
+        <v>18</v>
       </c>
       <c r="I9" s="7">
-        <v>103993</v>
+        <v>14148</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="M9" s="7">
-        <v>314</v>
+        <v>36</v>
       </c>
       <c r="N9" s="7">
-        <v>202549</v>
+        <v>27964</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>7193</v>
+        <v>635</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="H10" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>3793</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="M10" s="7">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>10986</v>
+        <v>635</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -2709,13 +2709,13 @@
         <v>802</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -2724,13 +2724,13 @@
         <v>635</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -2739,121 +2739,121 @@
         <v>1437</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C12" s="7">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D12" s="7">
-        <v>27478</v>
+        <v>7193</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="H12" s="7">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="I12" s="7">
-        <v>20000</v>
+        <v>3793</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="M12" s="7">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="N12" s="7">
-        <v>47477</v>
+        <v>10986</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D13" s="7">
-        <v>635</v>
+        <v>27478</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="N13" s="7">
-        <v>635</v>
+        <v>47477</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C14" s="7">
         <v>47</v>
@@ -2862,13 +2862,13 @@
         <v>30295</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="H14" s="7">
         <v>37</v>
@@ -2877,13 +2877,13 @@
         <v>24551</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>84</v>
@@ -2892,13 +2892,13 @@
         <v>54846</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2913,13 +2913,13 @@
         <v>66402</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H15" s="7">
         <v>73</v>
@@ -2928,13 +2928,13 @@
         <v>48979</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="M15" s="7">
         <v>174</v>
@@ -2943,270 +2943,270 @@
         <v>115381</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>9370</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="H16" s="7">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>13324</v>
+        <v>537</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="M16" s="7">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>22694</v>
+        <v>537</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>683</v>
+        <v>642</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
       </c>
       <c r="N17" s="7">
-        <v>1368</v>
+        <v>1321</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C18" s="7">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="D18" s="7">
-        <v>42962</v>
+        <v>12481</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="H18" s="7">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="I18" s="7">
-        <v>36501</v>
+        <v>7090</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="M18" s="7">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="N18" s="7">
-        <v>79462</v>
+        <v>19570</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>36027</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>43358</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>79384</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C20" s="7">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D20" s="7">
-        <v>44958</v>
+        <v>49370</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="H20" s="7">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="I20" s="7">
-        <v>40625</v>
+        <v>52367</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="M20" s="7">
+        <v>157</v>
+      </c>
+      <c r="N20" s="7">
+        <v>101737</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="N20" s="7">
-        <v>85582</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3215,54 +3215,54 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D21" s="7">
-        <v>97974</v>
+        <v>98557</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H21" s="7">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="I21" s="7">
-        <v>91133</v>
+        <v>103993</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="M21" s="7">
-        <v>261</v>
+        <v>314</v>
       </c>
       <c r="N21" s="7">
-        <v>189106</v>
+        <v>202549</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3274,49 +3274,49 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>929</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>929</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -3325,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -3340,13 +3340,13 @@
         <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -3355,166 +3355,166 @@
         <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C24" s="7">
         <v>11</v>
       </c>
       <c r="D24" s="7">
-        <v>8240</v>
+        <v>7272</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="H24" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I24" s="7">
-        <v>7026</v>
+        <v>5745</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="M24" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N24" s="7">
-        <v>15266</v>
+        <v>13017</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>24901</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>20871</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>45773</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C26" s="7">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="D26" s="7">
-        <v>5576</v>
+        <v>33489</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H26" s="7">
+        <v>55</v>
+      </c>
+      <c r="I26" s="7">
+        <v>34440</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M26" s="7">
+        <v>108</v>
+      </c>
+      <c r="N26" s="7">
+        <v>67929</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="H26" s="7">
-        <v>8</v>
-      </c>
-      <c r="I26" s="7">
-        <v>6193</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="M26" s="7">
-        <v>15</v>
-      </c>
-      <c r="N26" s="7">
-        <v>11769</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3523,306 +3523,306 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="D27" s="7">
-        <v>13816</v>
+        <v>65662</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H27" s="7">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="I27" s="7">
-        <v>14148</v>
+        <v>61057</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="M27" s="7">
-        <v>36</v>
+        <v>203</v>
       </c>
       <c r="N27" s="7">
-        <v>27964</v>
+        <v>126719</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D28" s="7">
-        <v>7272</v>
+        <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="H28" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I28" s="7">
-        <v>5745</v>
+        <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="M28" s="7">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="N28" s="7">
-        <v>13017</v>
+        <v>0</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>0</v>
+        <v>684</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>22</v>
+        <v>154</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="H29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="7">
-        <v>0</v>
+        <v>683</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="M29" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N29" s="7">
-        <v>0</v>
+        <v>1368</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>22</v>
+        <v>158</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C30" s="7">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D30" s="7">
-        <v>24901</v>
+        <v>9370</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="H30" s="7">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I30" s="7">
-        <v>20871</v>
+        <v>13324</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="M30" s="7">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="N30" s="7">
-        <v>45773</v>
+        <v>22694</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>42962</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>22</v>
+        <v>169</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>39</v>
+        <v>170</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="H31" s="7">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="I31" s="7">
-        <v>0</v>
+        <v>36501</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>22</v>
+        <v>172</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="M31" s="7">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="N31" s="7">
-        <v>0</v>
+        <v>79462</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C32" s="7">
+        <v>65</v>
+      </c>
+      <c r="D32" s="7">
+        <v>44958</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H32" s="7">
         <v>53</v>
       </c>
-      <c r="D32" s="7">
-        <v>33489</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="H32" s="7">
-        <v>55</v>
-      </c>
       <c r="I32" s="7">
-        <v>34440</v>
+        <v>40625</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M32" s="7">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="N32" s="7">
-        <v>67929</v>
+        <v>85582</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3831,49 +3831,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="D33" s="7">
-        <v>65662</v>
+        <v>97974</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H33" s="7">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="I33" s="7">
-        <v>61057</v>
+        <v>91133</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="M33" s="7">
-        <v>203</v>
+        <v>261</v>
       </c>
       <c r="N33" s="7">
-        <v>126719</v>
+        <v>189106</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3884,55 +3884,55 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="D34" s="7">
-        <v>36315</v>
+        <v>635</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>186</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="H34" s="7">
+        <v>1</v>
+      </c>
+      <c r="I34" s="7">
+        <v>537</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="H34" s="7">
-        <v>46</v>
-      </c>
-      <c r="I34" s="7">
-        <v>30881</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="K34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>2</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1171</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="P34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="M34" s="7">
-        <v>101</v>
-      </c>
-      <c r="N34" s="7">
-        <v>67196</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C35" s="7">
         <v>3</v>
@@ -3941,13 +3941,13 @@
         <v>2165</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H35" s="7">
         <v>3</v>
@@ -3956,13 +3956,13 @@
         <v>1960</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="M35" s="7">
         <v>6</v>
@@ -3971,121 +3971,121 @@
         <v>4126</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C36" s="7">
-        <v>208</v>
+        <v>55</v>
       </c>
       <c r="D36" s="7">
-        <v>139608</v>
+        <v>36315</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H36" s="7">
+        <v>46</v>
+      </c>
+      <c r="I36" s="7">
+        <v>30881</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>101</v>
+      </c>
+      <c r="N36" s="7">
+        <v>67196</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="H36" s="7">
-        <v>189</v>
-      </c>
-      <c r="I36" s="7">
-        <v>127755</v>
-      </c>
-      <c r="J36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="M36" s="7">
-        <v>397</v>
-      </c>
-      <c r="N36" s="7">
-        <v>267362</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C37" s="7">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="D37" s="7">
-        <v>635</v>
+        <v>139608</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H37" s="7">
+        <v>189</v>
+      </c>
+      <c r="I37" s="7">
+        <v>127755</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="H37" s="7">
-        <v>1</v>
-      </c>
-      <c r="I37" s="7">
-        <v>537</v>
-      </c>
-      <c r="J37" s="7" t="s">
+      <c r="M37" s="7">
+        <v>397</v>
+      </c>
+      <c r="N37" s="7">
+        <v>267362</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="K37" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L37" s="7" t="s">
+      <c r="P37" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="M37" s="7">
-        <v>2</v>
-      </c>
-      <c r="N37" s="7">
-        <v>1171</v>
-      </c>
-      <c r="O37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C38" s="7">
         <v>247</v>
@@ -4145,13 +4145,13 @@
         <v>342410</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H39" s="7">
         <v>474</v>
@@ -4160,13 +4160,13 @@
         <v>319309</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="M39" s="7">
         <v>988</v>
@@ -4175,13 +4175,13 @@
         <v>661719</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -4202,7 +4202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34FBB026-CD4C-4E2F-BE4B-3E8E61D868ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8B5B8E-4D7D-4F17-B547-189C8BBBBEA3}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4320,55 +4320,55 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>6959</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="H4" s="7">
-        <v>15</v>
-      </c>
-      <c r="I4" s="7">
-        <v>9680</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="M4" s="7">
-        <v>25</v>
-      </c>
-      <c r="N4" s="7">
-        <v>16638</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -4377,13 +4377,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4392,13 +4392,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4407,166 +4407,166 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>26</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C6" s="7">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>38905</v>
+        <v>3695</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H6" s="7">
+        <v>5</v>
+      </c>
+      <c r="I6" s="7">
+        <v>4341</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="M6" s="7">
+        <v>9</v>
+      </c>
+      <c r="N6" s="7">
+        <v>8036</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="H6" s="7">
-        <v>49</v>
-      </c>
-      <c r="I6" s="7">
-        <v>31862</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="M6" s="7">
-        <v>108</v>
-      </c>
-      <c r="N6" s="7">
-        <v>70767</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>2983</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>22</v>
+        <v>237</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>1539</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>22</v>
+        <v>239</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>4522</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>22</v>
+        <v>241</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>242</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>26</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C8" s="7">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="D8" s="7">
-        <v>50703</v>
+        <v>7812</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>7</v>
+      </c>
+      <c r="I8" s="7">
+        <v>6063</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="H8" s="7">
-        <v>85</v>
-      </c>
-      <c r="I8" s="7">
-        <v>56900</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>16</v>
+      </c>
+      <c r="N8" s="7">
+        <v>13875</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="M8" s="7">
-        <v>160</v>
-      </c>
-      <c r="N8" s="7">
-        <v>107603</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4575,108 +4575,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="D9" s="7">
-        <v>96566</v>
+        <v>14490</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H9" s="7">
-        <v>149</v>
+        <v>14</v>
       </c>
       <c r="I9" s="7">
-        <v>98442</v>
+        <v>11943</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="M9" s="7">
-        <v>293</v>
+        <v>30</v>
       </c>
       <c r="N9" s="7">
-        <v>195008</v>
+        <v>26433</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>3314</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="H10" s="7">
-        <v>4</v>
-      </c>
-      <c r="I10" s="7">
-        <v>2705</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>257</v>
-      </c>
       <c r="M10" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>6019</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>258</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>259</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>260</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -4685,13 +4685,13 @@
         <v>630</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -4700,13 +4700,13 @@
         <v>916</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -4715,121 +4715,121 @@
         <v>1546</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C12" s="7">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>25588</v>
+        <v>3314</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H12" s="7">
+        <v>4</v>
+      </c>
+      <c r="I12" s="7">
+        <v>2705</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="M12" s="7">
+        <v>9</v>
+      </c>
+      <c r="N12" s="7">
+        <v>6019</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="H12" s="7">
-        <v>24</v>
-      </c>
-      <c r="I12" s="7">
-        <v>17420</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="M12" s="7">
-        <v>62</v>
-      </c>
-      <c r="N12" s="7">
-        <v>43008</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="7">
         <v>38</v>
       </c>
-      <c r="C13" s="7">
-        <v>0</v>
-      </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>25588</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>22</v>
+        <v>268</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>39</v>
+        <v>269</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>17420</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>22</v>
+        <v>271</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>39</v>
+        <v>272</v>
       </c>
       <c r="L13" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="M13" s="7">
+        <v>62</v>
+      </c>
+      <c r="N13" s="7">
+        <v>43008</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C14" s="7">
         <v>40</v>
@@ -4889,13 +4889,13 @@
         <v>57487</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H15" s="7">
         <v>74</v>
@@ -4904,13 +4904,13 @@
         <v>53022</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="M15" s="7">
         <v>158</v>
@@ -4919,87 +4919,87 @@
         <v>110509</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="7">
-        <v>9011</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="H16" s="7">
-        <v>14</v>
-      </c>
-      <c r="I16" s="7">
-        <v>11422</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>291</v>
-      </c>
       <c r="M16" s="7">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>20433</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>292</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>293</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>294</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>1561</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>295</v>
+        <v>11</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -5008,181 +5008,181 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>1561</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>298</v>
+        <v>11</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C18" s="7">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="D18" s="7">
-        <v>35395</v>
+        <v>6959</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="H18" s="7">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I18" s="7">
-        <v>35667</v>
+        <v>9680</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="M18" s="7">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="N18" s="7">
-        <v>71062</v>
+        <v>16638</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="D19" s="7">
-        <v>767</v>
+        <v>38905</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>22</v>
+        <v>298</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>31862</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>22</v>
+        <v>300</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>301</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="M19" s="7">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="N19" s="7">
-        <v>767</v>
+        <v>70767</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>22</v>
+        <v>304</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C20" s="7">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="D20" s="7">
-        <v>45448</v>
+        <v>50703</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="H20" s="7">
+        <v>85</v>
+      </c>
+      <c r="I20" s="7">
+        <v>56900</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="M20" s="7">
+        <v>160</v>
+      </c>
+      <c r="N20" s="7">
+        <v>107603</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="H20" s="7">
-        <v>58</v>
-      </c>
-      <c r="I20" s="7">
-        <v>44238</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="M20" s="7">
-        <v>122</v>
-      </c>
-      <c r="N20" s="7">
-        <v>89686</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>319</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>320</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5191,306 +5191,306 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="D21" s="7">
-        <v>92182</v>
+        <v>96566</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H21" s="7">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="I21" s="7">
-        <v>91327</v>
+        <v>98442</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="M21" s="7">
-        <v>244</v>
+        <v>293</v>
       </c>
       <c r="N21" s="7">
-        <v>183509</v>
+        <v>195008</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>3695</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>321</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>322</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>323</v>
+        <v>257</v>
       </c>
       <c r="H22" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>4341</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>324</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>325</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="M22" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>8036</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>327</v>
+        <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>328</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>329</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>564</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>22</v>
+        <v>315</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>1291</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>22</v>
+        <v>317</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>1855</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>22</v>
+        <v>319</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>39</v>
+        <v>320</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C24" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D24" s="7">
-        <v>2983</v>
+        <v>5492</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>133</v>
+        <v>323</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="H24" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I24" s="7">
-        <v>1539</v>
+        <v>4985</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>22</v>
+        <v>326</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="M24" s="7">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="N24" s="7">
-        <v>4522</v>
+        <v>10477</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>18799</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>22</v>
+        <v>331</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>39</v>
+        <v>332</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>24131</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>22</v>
+        <v>334</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>42929</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>22</v>
+        <v>337</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>39</v>
+        <v>338</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C26" s="7">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="D26" s="7">
-        <v>7812</v>
+        <v>44669</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>340</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>55</v>
+      </c>
+      <c r="I26" s="7">
+        <v>36117</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="H26" s="7">
-        <v>7</v>
-      </c>
-      <c r="I26" s="7">
-        <v>6063</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>124</v>
+      </c>
+      <c r="N26" s="7">
+        <v>80787</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="M26" s="7">
-        <v>16</v>
-      </c>
-      <c r="N26" s="7">
-        <v>13875</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5499,282 +5499,282 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="D27" s="7">
-        <v>14490</v>
+        <v>69524</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H27" s="7">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="I27" s="7">
-        <v>11943</v>
+        <v>66524</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="M27" s="7">
-        <v>30</v>
+        <v>212</v>
       </c>
       <c r="N27" s="7">
-        <v>26433</v>
+        <v>136048</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D28" s="7">
-        <v>5492</v>
+        <v>767</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>1</v>
+      </c>
+      <c r="N28" s="7">
+        <v>767</v>
+      </c>
+      <c r="O28" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="H28" s="7">
-        <v>8</v>
-      </c>
-      <c r="I28" s="7">
-        <v>4985</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="P28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="M28" s="7">
-        <v>18</v>
-      </c>
-      <c r="N28" s="7">
-        <v>10477</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C29" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" s="7">
-        <v>564</v>
+        <v>1561</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="M29" s="7">
         <v>2</v>
       </c>
-      <c r="I29" s="7">
-        <v>1291</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="M29" s="7">
-        <v>3</v>
-      </c>
       <c r="N29" s="7">
-        <v>1855</v>
+        <v>1561</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>363</v>
+        <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>364</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C30" s="7">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D30" s="7">
-        <v>18799</v>
+        <v>9011</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="H30" s="7">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="I30" s="7">
-        <v>24131</v>
+        <v>11422</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="M30" s="7">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="N30" s="7">
-        <v>42929</v>
+        <v>20433</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>35395</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>22</v>
+        <v>365</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>39</v>
+        <v>366</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>263</v>
+        <v>367</v>
       </c>
       <c r="H31" s="7">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I31" s="7">
-        <v>0</v>
+        <v>35667</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>22</v>
+        <v>368</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>39</v>
+        <v>369</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="M31" s="7">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="N31" s="7">
-        <v>0</v>
+        <v>71062</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>22</v>
+        <v>371</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>39</v>
+        <v>372</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>213</v>
+        <v>373</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C32" s="7">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D32" s="7">
-        <v>44669</v>
+        <v>45448</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>376</v>
       </c>
       <c r="H32" s="7">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I32" s="7">
-        <v>36117</v>
+        <v>44238</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>377</v>
@@ -5786,10 +5786,10 @@
         <v>379</v>
       </c>
       <c r="M32" s="7">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N32" s="7">
-        <v>80787</v>
+        <v>89686</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>380</v>
@@ -5807,49 +5807,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="D33" s="7">
-        <v>69524</v>
+        <v>92182</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H33" s="7">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="I33" s="7">
-        <v>66524</v>
+        <v>91327</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="M33" s="7">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="N33" s="7">
-        <v>136048</v>
+        <v>183509</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5860,55 +5860,55 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="D34" s="7">
-        <v>28471</v>
+        <v>767</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>383</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1</v>
+      </c>
+      <c r="N34" s="7">
+        <v>767</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="P34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="H34" s="7">
-        <v>46</v>
-      </c>
-      <c r="I34" s="7">
-        <v>33133</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="M34" s="7">
-        <v>87</v>
-      </c>
-      <c r="N34" s="7">
-        <v>61604</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C35" s="7">
         <v>4</v>
@@ -5917,13 +5917,13 @@
         <v>2756</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>308</v>
+        <v>348</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="H35" s="7">
         <v>3</v>
@@ -5932,13 +5932,13 @@
         <v>2206</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>374</v>
+        <v>314</v>
       </c>
       <c r="M35" s="7">
         <v>7</v>
@@ -5947,112 +5947,112 @@
         <v>4962</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C36" s="7">
-        <v>178</v>
+        <v>41</v>
       </c>
       <c r="D36" s="7">
-        <v>121669</v>
+        <v>28471</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="H36" s="7">
+        <v>46</v>
+      </c>
+      <c r="I36" s="7">
+        <v>33133</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="M36" s="7">
+        <v>87</v>
+      </c>
+      <c r="N36" s="7">
+        <v>61604</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="H36" s="7">
-        <v>157</v>
-      </c>
-      <c r="I36" s="7">
-        <v>110619</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="M36" s="7">
-        <v>335</v>
-      </c>
-      <c r="N36" s="7">
-        <v>232288</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C37" s="7">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="D37" s="7">
-        <v>767</v>
+        <v>121669</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="H37" s="7">
+        <v>157</v>
+      </c>
+      <c r="I37" s="7">
+        <v>110619</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="M37" s="7">
+        <v>335</v>
+      </c>
+      <c r="N37" s="7">
+        <v>232288</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="H37" s="7">
-        <v>0</v>
-      </c>
-      <c r="I37" s="7">
-        <v>0</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="M37" s="7">
-        <v>1</v>
-      </c>
-      <c r="N37" s="7">
-        <v>767</v>
-      </c>
-      <c r="O37" s="7" t="s">
+      <c r="P37" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>407</v>
@@ -6061,7 +6061,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C38" s="7">
         <v>257</v>
@@ -6121,13 +6121,13 @@
         <v>330248</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H39" s="7">
         <v>456</v>
@@ -6136,13 +6136,13 @@
         <v>321258</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="M39" s="7">
         <v>937</v>
@@ -6151,13 +6151,13 @@
         <v>651506</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -6178,7 +6178,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21538EF7-F249-4B3C-85CC-703B4B0045EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3988C751-6230-4E8A-9FBD-AD96EC962EDA}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6296,253 +6296,253 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="7">
-        <v>8183</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="H4" s="7">
-        <v>10</v>
-      </c>
-      <c r="I4" s="7">
-        <v>6354</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>422</v>
-      </c>
       <c r="M4" s="7">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>14537</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>423</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>424</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>425</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>1361</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>426</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>1190</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>428</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="M5" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>2551</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>430</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>421</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C6" s="7">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>36536</v>
+        <v>754</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>431</v>
+        <v>44</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>432</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>177</v>
+        <v>420</v>
       </c>
       <c r="H6" s="7">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="I6" s="7">
-        <v>41177</v>
+        <v>4722</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="M6" s="7">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="N6" s="7">
-        <v>77713</v>
+        <v>5477</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>437</v>
+        <v>363</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>4855</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>22</v>
+        <v>426</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>427</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>69</v>
+        <v>428</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>2039</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>22</v>
+        <v>429</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>6894</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>22</v>
+        <v>431</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>432</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>198</v>
+        <v>433</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C8" s="7">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="D8" s="7">
-        <v>59572</v>
+        <v>8704</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="H8" s="7">
+        <v>8</v>
+      </c>
+      <c r="I8" s="7">
+        <v>7165</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="M8" s="7">
+        <v>18</v>
+      </c>
+      <c r="N8" s="7">
+        <v>15869</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="H8" s="7">
-        <v>86</v>
-      </c>
-      <c r="I8" s="7">
-        <v>57109</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="M8" s="7">
-        <v>170</v>
-      </c>
-      <c r="N8" s="7">
-        <v>116682</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6551,108 +6551,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="D9" s="7">
-        <v>105652</v>
+        <v>14314</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H9" s="7">
-        <v>161</v>
+        <v>15</v>
       </c>
       <c r="I9" s="7">
-        <v>105830</v>
+        <v>13926</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="M9" s="7">
-        <v>313</v>
+        <v>32</v>
       </c>
       <c r="N9" s="7">
-        <v>211482</v>
+        <v>28240</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>2970</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="H10" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>5082</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>451</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>452</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="M10" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>8052</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>454</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>455</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>456</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -6661,13 +6661,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -6676,13 +6676,13 @@
         <v>1455</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -6691,121 +6691,121 @@
         <v>1455</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C12" s="7">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="D12" s="7">
-        <v>22404</v>
+        <v>2970</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>462</v>
+        <v>151</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="H12" s="7">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="I12" s="7">
-        <v>20642</v>
+        <v>5082</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="M12" s="7">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="N12" s="7">
-        <v>43046</v>
+        <v>8052</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>22404</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>22</v>
+        <v>456</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>39</v>
+        <v>457</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>20642</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>22</v>
+        <v>459</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>39</v>
+        <v>460</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>43046</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>22</v>
+        <v>462</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>39</v>
+        <v>463</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>65</v>
+        <v>464</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C14" s="7">
         <v>44</v>
@@ -6817,10 +6817,10 @@
         <v>416</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="H14" s="7">
         <v>42</v>
@@ -6829,13 +6829,13 @@
         <v>29049</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="M14" s="7">
         <v>86</v>
@@ -6844,13 +6844,13 @@
         <v>62988</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6865,13 +6865,13 @@
         <v>59313</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H15" s="7">
         <v>80</v>
@@ -6880,13 +6880,13 @@
         <v>56228</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="M15" s="7">
         <v>157</v>
@@ -6895,270 +6895,270 @@
         <v>115541</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>6234</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>332</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>479</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>480</v>
+        <v>52</v>
       </c>
       <c r="H16" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>9694</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>481</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>482</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="M16" s="7">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>15928</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>484</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>485</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>713</v>
+        <v>1361</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>104</v>
+        <v>474</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>705</v>
+        <v>1190</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N17" s="7">
-        <v>1419</v>
+        <v>2551</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>489</v>
+        <v>48</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>22</v>
+        <v>478</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C18" s="7">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="D18" s="7">
-        <v>39394</v>
+        <v>8183</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>491</v>
+        <v>57</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="H18" s="7">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="I18" s="7">
-        <v>41635</v>
+        <v>6354</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="M18" s="7">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="N18" s="7">
-        <v>81029</v>
+        <v>14537</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>36536</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>22</v>
+        <v>487</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>488</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>500</v>
+        <v>140</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>41177</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>22</v>
+        <v>489</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>490</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>77713</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>22</v>
+        <v>492</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>493</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>21</v>
+        <v>494</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C20" s="7">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D20" s="7">
-        <v>55088</v>
+        <v>59572</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="H20" s="7">
+        <v>86</v>
+      </c>
+      <c r="I20" s="7">
+        <v>57109</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="M20" s="7">
+        <v>170</v>
+      </c>
+      <c r="N20" s="7">
+        <v>116682</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>503</v>
-      </c>
-      <c r="H20" s="7">
-        <v>72</v>
-      </c>
-      <c r="I20" s="7">
-        <v>55558</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="M20" s="7">
-        <v>145</v>
-      </c>
-      <c r="N20" s="7">
-        <v>110646</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7167,306 +7167,306 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="D21" s="7">
-        <v>101429</v>
+        <v>105652</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H21" s="7">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="I21" s="7">
-        <v>107592</v>
+        <v>105830</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="M21" s="7">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="N21" s="7">
-        <v>209021</v>
+        <v>211482</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>754</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="H22" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>4722</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>511</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>512</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="M22" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>5477</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>514</v>
+        <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>293</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>1789</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>22</v>
+        <v>507</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>1413</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>22</v>
+        <v>509</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>3202</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>22</v>
+        <v>511</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>39</v>
+        <v>512</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>232</v>
+        <v>513</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C24" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D24" s="7">
-        <v>4855</v>
+        <v>7589</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="H24" s="7">
+        <v>7</v>
+      </c>
+      <c r="I24" s="7">
+        <v>4644</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>17</v>
+      </c>
+      <c r="N24" s="7">
+        <v>12234</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="H24" s="7">
-        <v>2</v>
-      </c>
-      <c r="I24" s="7">
-        <v>2039</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>521</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="M24" s="7">
-        <v>8</v>
-      </c>
-      <c r="N24" s="7">
-        <v>6894</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>30542</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>22</v>
+        <v>522</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>39</v>
+        <v>523</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>22663</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>22</v>
+        <v>525</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>39</v>
+        <v>526</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>53205</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>22</v>
+        <v>528</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>39</v>
+        <v>529</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>232</v>
+        <v>530</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C26" s="7">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="D26" s="7">
-        <v>8704</v>
+        <v>38023</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="H26" s="7">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="I26" s="7">
-        <v>7165</v>
+        <v>42990</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="M26" s="7">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="N26" s="7">
-        <v>15869</v>
+        <v>81012</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>534</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7475,252 +7475,252 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="D27" s="7">
-        <v>14314</v>
+        <v>77943</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H27" s="7">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="I27" s="7">
-        <v>13926</v>
+        <v>71710</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="M27" s="7">
-        <v>32</v>
+        <v>220</v>
       </c>
       <c r="N27" s="7">
-        <v>28240</v>
+        <v>149653</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D28" s="7">
-        <v>7589</v>
+        <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>535</v>
+        <v>11</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>266</v>
+        <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="H28" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I28" s="7">
-        <v>4644</v>
+        <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>537</v>
+        <v>11</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>538</v>
+        <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M28" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="N28" s="7">
-        <v>12234</v>
+        <v>0</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>540</v>
+        <v>11</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>541</v>
+        <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>542</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C29" s="7">
+        <v>1</v>
+      </c>
+      <c r="D29" s="7">
+        <v>713</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="H29" s="7">
+        <v>1</v>
+      </c>
+      <c r="I29" s="7">
+        <v>705</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="M29" s="7">
         <v>2</v>
       </c>
-      <c r="D29" s="7">
-        <v>1789</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="7" t="s">
+      <c r="N29" s="7">
+        <v>1419</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="H29" s="7">
-        <v>2</v>
-      </c>
-      <c r="I29" s="7">
-        <v>1413</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="P29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>545</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="M29" s="7">
-        <v>4</v>
-      </c>
-      <c r="N29" s="7">
-        <v>3202</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C30" s="7">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D30" s="7">
-        <v>30542</v>
+        <v>6234</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="H30" s="7">
+        <v>13</v>
+      </c>
+      <c r="I30" s="7">
+        <v>9694</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="M30" s="7">
+        <v>21</v>
+      </c>
+      <c r="N30" s="7">
+        <v>15928</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="P30" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>552</v>
-      </c>
-      <c r="H30" s="7">
-        <v>35</v>
-      </c>
-      <c r="I30" s="7">
-        <v>22663</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="M30" s="7">
-        <v>77</v>
-      </c>
-      <c r="N30" s="7">
-        <v>53205</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>39394</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>22</v>
+        <v>553</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>39</v>
+        <v>554</v>
       </c>
       <c r="G31" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="H31" s="7">
+        <v>55</v>
+      </c>
+      <c r="I31" s="7">
+        <v>41635</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="M31" s="7">
+        <v>110</v>
+      </c>
+      <c r="N31" s="7">
+        <v>81029</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L31" s="7" t="s">
+      <c r="P31" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="M31" s="7">
-        <v>0</v>
-      </c>
-      <c r="N31" s="7">
-        <v>0</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>561</v>
@@ -7729,28 +7729,28 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C32" s="7">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="D32" s="7">
-        <v>38023</v>
+        <v>55088</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>562</v>
       </c>
       <c r="F32" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="G32" s="7" t="s">
-        <v>509</v>
-      </c>
       <c r="H32" s="7">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="I32" s="7">
-        <v>42990</v>
+        <v>55558</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>564</v>
@@ -7762,10 +7762,10 @@
         <v>566</v>
       </c>
       <c r="M32" s="7">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="N32" s="7">
-        <v>81012</v>
+        <v>110646</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>567</v>
@@ -7774,7 +7774,7 @@
         <v>568</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>280</v>
+        <v>533</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7783,49 +7783,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="D33" s="7">
-        <v>77943</v>
+        <v>101429</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H33" s="7">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="I33" s="7">
-        <v>71710</v>
+        <v>107592</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="M33" s="7">
-        <v>220</v>
+        <v>278</v>
       </c>
       <c r="N33" s="7">
-        <v>149653</v>
+        <v>209021</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7836,55 +7836,55 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="D34" s="7">
-        <v>25731</v>
+        <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>569</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="G34" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="H34" s="7">
-        <v>42</v>
-      </c>
-      <c r="I34" s="7">
-        <v>30496</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>572</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>574</v>
-      </c>
       <c r="M34" s="7">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="N34" s="7">
-        <v>56227</v>
+        <v>0</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P34" s="7" t="s">
-        <v>575</v>
-      </c>
       <c r="Q34" s="7" t="s">
-        <v>535</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C35" s="7">
         <v>5</v>
@@ -7893,13 +7893,13 @@
         <v>3864</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="H35" s="7">
         <v>7</v>
@@ -7908,13 +7908,13 @@
         <v>4763</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="M35" s="7">
         <v>12</v>
@@ -7923,121 +7923,121 @@
         <v>8626</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C36" s="7">
-        <v>186</v>
+        <v>35</v>
       </c>
       <c r="D36" s="7">
-        <v>133731</v>
+        <v>25731</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>533</v>
+        <v>575</v>
       </c>
       <c r="F36" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="H36" s="7">
+        <v>42</v>
+      </c>
+      <c r="I36" s="7">
+        <v>30496</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="M36" s="7">
+        <v>77</v>
+      </c>
+      <c r="N36" s="7">
+        <v>56227</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="G36" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="H36" s="7">
-        <v>184</v>
-      </c>
-      <c r="I36" s="7">
-        <v>128156</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>583</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>585</v>
-      </c>
-      <c r="M36" s="7">
-        <v>370</v>
-      </c>
-      <c r="N36" s="7">
-        <v>261887</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>586</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>587</v>
-      </c>
       <c r="Q36" s="7" t="s">
-        <v>588</v>
+        <v>514</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C37" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="D37" s="7">
-        <v>0</v>
+        <v>133731</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>22</v>
+        <v>441</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>39</v>
+        <v>582</v>
       </c>
       <c r="G37" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="H37" s="7">
+        <v>184</v>
+      </c>
+      <c r="I37" s="7">
+        <v>128156</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="M37" s="7">
+        <v>370</v>
+      </c>
+      <c r="N37" s="7">
+        <v>261887</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>589</v>
-      </c>
-      <c r="H37" s="7">
-        <v>0</v>
-      </c>
-      <c r="I37" s="7">
-        <v>0</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>577</v>
-      </c>
-      <c r="M37" s="7">
-        <v>0</v>
-      </c>
-      <c r="N37" s="7">
-        <v>0</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C38" s="7">
         <v>266</v>
@@ -8097,13 +8097,13 @@
         <v>358652</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H39" s="7">
         <v>508</v>
@@ -8112,13 +8112,13 @@
         <v>355286</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="M39" s="7">
         <v>1000</v>
@@ -8127,13 +8127,13 @@
         <v>713937</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A15-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A15-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B642F88C-17D8-4E73-A941-4420FB48F1F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C36D87B-90E4-476C-A005-7E5FCAC49A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{4F40FCDF-B697-40D7-BB0A-0E6D34AA07A0}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1F5A0921-CD6D-4C25-B627-3A8D72C753FE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="607">
   <si>
     <t>Menores según frecuencia de que los padres tubiesen suficiente tiempo par él/ella en 2007 (Tasa respuesta: 46,96%)</t>
   </si>
@@ -70,1771 +70,1795 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
     <t>0,96%</t>
   </si>
   <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de que los padres tubiesen suficiente tiempo par él/ella en 2012 (Tasa respuesta: 44,64%)</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de que los padres tubiesen suficiente tiempo par él/ella en 2015 (Tasa respuesta: 47,04%)</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
     <t>5,27%</t>
   </si>
   <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
   </si>
   <si>
     <t>3,29%</t>
   </si>
   <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
   </si>
   <si>
     <t>7,88%</t>
   </si>
   <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de que los padres tubiesen suficiente tiempo par él/ella en 2012 (Tasa respuesta: 44,64%)</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
   </si>
   <si>
     <t>0,59%</t>
   </si>
   <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de que los padres tubiesen suficiente tiempo par él/ella en 2015 (Tasa respuesta: 47,04%)</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
+    <t>2,61%</t>
   </si>
   <si>
     <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
   </si>
 </sst>
 </file>
@@ -1845,7 +1869,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1941,39 +1965,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2025,7 +2049,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2136,13 +2160,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -2151,6 +2168,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2215,19 +2239,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CFB4C5-B0A7-47C7-84D5-041F1EE3FB70}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C20BB11-690B-4D99-8E8F-4EBE2078F9C1}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2344,10 +2388,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>5576</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2359,91 +2403,91 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>6193</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>11769</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>8240</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>7026</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>15266</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -2452,13 +2496,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -2467,13 +2511,13 @@
         <v>929</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -2482,115 +2526,115 @@
         <v>929</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>8240</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>7026</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="M7" s="7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>15266</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C8" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>5576</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="H8" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>6193</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M8" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>11769</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2652,106 +2696,106 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="D10" s="7">
-        <v>635</v>
+        <v>30295</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>43</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>24551</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="N10" s="7">
-        <v>635</v>
+        <v>54846</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D11" s="7">
-        <v>802</v>
+        <v>27478</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="I11" s="7">
-        <v>635</v>
+        <v>20000</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="N11" s="7">
-        <v>1437</v>
+        <v>47477</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>11</v>
@@ -2760,13 +2804,13 @@
         <v>7193</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -2775,13 +2819,13 @@
         <v>3793</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="M12" s="7">
         <v>17</v>
@@ -2790,115 +2834,115 @@
         <v>10986</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>27478</v>
+        <v>802</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>20000</v>
+        <v>635</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>47477</v>
+        <v>1437</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C14" s="7">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>30295</v>
+        <v>635</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>24551</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M14" s="7">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>54846</v>
+        <v>635</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2954,112 +2998,112 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>49370</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="I16" s="7">
-        <v>537</v>
+        <v>52367</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="N16" s="7">
-        <v>537</v>
+        <v>101737</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="D17" s="7">
-        <v>680</v>
+        <v>36027</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="I17" s="7">
-        <v>642</v>
+        <v>43358</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>124</v>
       </c>
       <c r="N17" s="7">
-        <v>1321</v>
+        <v>79384</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>19</v>
@@ -3068,13 +3112,13 @@
         <v>12481</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
@@ -3083,13 +3127,13 @@
         <v>7090</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="M18" s="7">
         <v>30</v>
@@ -3098,115 +3142,115 @@
         <v>19570</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>36027</v>
+        <v>680</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>43358</v>
+        <v>642</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
-        <v>124</v>
+        <v>2</v>
       </c>
       <c r="N19" s="7">
-        <v>79384</v>
+        <v>1321</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C20" s="7">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>49370</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>52367</v>
+        <v>537</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M20" s="7">
-        <v>157</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>101737</v>
+        <v>537</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3262,112 +3306,112 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>33489</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>34440</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>67929</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>24901</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>20871</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>45773</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>11</v>
@@ -3376,13 +3420,13 @@
         <v>7272</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
@@ -3391,13 +3435,13 @@
         <v>5745</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="M24" s="7">
         <v>21</v>
@@ -3406,115 +3450,115 @@
         <v>13017</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>24901</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>20871</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="M25" s="7">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="N25" s="7">
-        <v>45773</v>
+        <v>0</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>138</v>
+        <v>31</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C26" s="7">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>33489</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>141</v>
+        <v>31</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H26" s="7">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>34440</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>144</v>
+        <v>31</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M26" s="7">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>67929</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>147</v>
+        <v>31</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>148</v>
+        <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3570,112 +3614,112 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D28" s="7">
-        <v>0</v>
+        <v>44958</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>11</v>
+        <v>152</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H28" s="7">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="I28" s="7">
-        <v>0</v>
+        <v>40625</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="M28" s="7">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="N28" s="7">
-        <v>0</v>
+        <v>85582</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>11</v>
+        <v>158</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="D29" s="7">
-        <v>684</v>
+        <v>42962</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>11</v>
+        <v>162</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="H29" s="7">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="I29" s="7">
-        <v>683</v>
+        <v>36501</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>11</v>
+        <v>165</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="M29" s="7">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="N29" s="7">
-        <v>1368</v>
+        <v>79462</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>11</v>
+        <v>168</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>14</v>
@@ -3684,13 +3728,13 @@
         <v>9370</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="H30" s="7">
         <v>18</v>
@@ -3699,13 +3743,13 @@
         <v>13324</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="M30" s="7">
         <v>32</v>
@@ -3714,115 +3758,115 @@
         <v>22694</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C31" s="7">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="D31" s="7">
-        <v>42962</v>
+        <v>684</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>170</v>
+        <v>31</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="H31" s="7">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="I31" s="7">
-        <v>36501</v>
+        <v>683</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>173</v>
+        <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="M31" s="7">
-        <v>109</v>
+        <v>2</v>
       </c>
       <c r="N31" s="7">
-        <v>79462</v>
+        <v>1368</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>176</v>
+        <v>31</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C32" s="7">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D32" s="7">
-        <v>44958</v>
+        <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>178</v>
+        <v>31</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>179</v>
+        <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="H32" s="7">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>40625</v>
+        <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>181</v>
+        <v>31</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>182</v>
+        <v>32</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M32" s="7">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="N32" s="7">
-        <v>85582</v>
+        <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>184</v>
+        <v>31</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>185</v>
+        <v>32</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3884,106 +3928,106 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>1</v>
+        <v>247</v>
       </c>
       <c r="D34" s="7">
-        <v>635</v>
+        <v>163687</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>11</v>
+        <v>189</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H34" s="7">
-        <v>1</v>
+        <v>235</v>
       </c>
       <c r="I34" s="7">
-        <v>537</v>
+        <v>158176</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>11</v>
+        <v>192</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M34" s="7">
-        <v>2</v>
+        <v>482</v>
       </c>
       <c r="N34" s="7">
-        <v>1171</v>
+        <v>321863</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>3</v>
+        <v>208</v>
       </c>
       <c r="D35" s="7">
-        <v>2165</v>
+        <v>139608</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="H35" s="7">
-        <v>3</v>
+        <v>189</v>
       </c>
       <c r="I35" s="7">
-        <v>1960</v>
+        <v>127755</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="M35" s="7">
-        <v>6</v>
+        <v>397</v>
       </c>
       <c r="N35" s="7">
-        <v>4126</v>
+        <v>267362</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>88</v>
+        <v>202</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>85</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>55</v>
@@ -3992,13 +4036,13 @@
         <v>36315</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="H36" s="7">
         <v>46</v>
@@ -4007,13 +4051,13 @@
         <v>30881</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="M36" s="7">
         <v>101</v>
@@ -4022,115 +4066,115 @@
         <v>67196</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C37" s="7">
-        <v>208</v>
+        <v>3</v>
       </c>
       <c r="D37" s="7">
-        <v>139608</v>
+        <v>2165</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="H37" s="7">
-        <v>189</v>
+        <v>3</v>
       </c>
       <c r="I37" s="7">
-        <v>127755</v>
+        <v>1960</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="M37" s="7">
-        <v>397</v>
+        <v>6</v>
       </c>
       <c r="N37" s="7">
-        <v>267362</v>
+        <v>4126</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>212</v>
+        <v>111</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C38" s="7">
-        <v>247</v>
+        <v>1</v>
       </c>
       <c r="D38" s="7">
-        <v>163687</v>
+        <v>635</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>216</v>
+        <v>31</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H38" s="7">
-        <v>235</v>
+        <v>1</v>
       </c>
       <c r="I38" s="7">
-        <v>158176</v>
+        <v>537</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>219</v>
+        <v>31</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M38" s="7">
-        <v>482</v>
+        <v>2</v>
       </c>
       <c r="N38" s="7">
-        <v>321863</v>
+        <v>1171</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>222</v>
+        <v>31</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>223</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4182,6 +4226,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -4202,8 +4251,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8B5B8E-4D7D-4F17-B547-189C8BBBBEA3}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8AEC5EE-49C6-43C2-9B61-3ADAF7E36FBE}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4219,7 +4268,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4320,106 +4369,106 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>7812</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>227</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>228</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>6063</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>230</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>231</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>13875</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>233</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>234</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>2983</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>236</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>1539</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>238</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>4522</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>240</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>241</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>4</v>
@@ -4428,13 +4477,13 @@
         <v>3695</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -4443,13 +4492,13 @@
         <v>4341</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="M6" s="7">
         <v>9</v>
@@ -4458,115 +4507,115 @@
         <v>8036</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>2983</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>237</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>1539</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>239</v>
+        <v>31</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="M7" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>4522</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>241</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>242</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C8" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>7812</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>244</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>245</v>
+        <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="H8" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>6063</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>247</v>
+        <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>248</v>
+        <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="M8" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>13875</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>250</v>
+        <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>251</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4628,106 +4677,106 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>27955</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>255</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>256</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>31981</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>258</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>259</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>59936</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>261</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>48</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D11" s="7">
-        <v>630</v>
+        <v>25588</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>265</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="I11" s="7">
-        <v>916</v>
+        <v>17420</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>268</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="N11" s="7">
-        <v>1546</v>
+        <v>43008</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>271</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>5</v>
@@ -4736,13 +4785,13 @@
         <v>3314</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -4751,13 +4800,13 @@
         <v>2705</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>52</v>
+        <v>277</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="M12" s="7">
         <v>9</v>
@@ -4766,115 +4815,115 @@
         <v>6019</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>25588</v>
+        <v>630</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>269</v>
+        <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="H13" s="7">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>17420</v>
+        <v>916</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>272</v>
+        <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="M13" s="7">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>43008</v>
+        <v>1546</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>275</v>
+        <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C14" s="7">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>27955</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>277</v>
+        <v>31</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>278</v>
+        <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="H14" s="7">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>31981</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>280</v>
+        <v>31</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>281</v>
+        <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="M14" s="7">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>59936</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>283</v>
+        <v>31</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>284</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>285</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4930,112 +4979,112 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>50703</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>290</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>291</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>56900</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>293</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>294</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>107603</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>296</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>297</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>90</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>38905</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>11</v>
+        <v>299</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>12</v>
+        <v>300</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>31862</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>11</v>
+        <v>302</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>12</v>
+        <v>303</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>70767</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>11</v>
+        <v>305</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>12</v>
+        <v>306</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>90</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>10</v>
@@ -5044,13 +5093,13 @@
         <v>6959</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="H18" s="7">
         <v>15</v>
@@ -5059,13 +5108,13 @@
         <v>9680</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="M18" s="7">
         <v>25</v>
@@ -5074,115 +5123,115 @@
         <v>16638</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>38905</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>297</v>
+        <v>31</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>298</v>
+        <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="H19" s="7">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>31862</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>300</v>
+        <v>31</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>301</v>
+        <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="M19" s="7">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="N19" s="7">
-        <v>70767</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>303</v>
+        <v>31</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>304</v>
+        <v>32</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>305</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C20" s="7">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>50703</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>306</v>
+        <v>31</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>307</v>
+        <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="H20" s="7">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>56900</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>309</v>
+        <v>31</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>310</v>
+        <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="M20" s="7">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>107603</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>312</v>
+        <v>31</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>313</v>
+        <v>32</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>40</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5238,112 +5287,112 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>44669</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>319</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>320</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>257</v>
+        <v>321</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>36117</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>11</v>
+        <v>322</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>323</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>80787</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>11</v>
+        <v>325</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>12</v>
+        <v>326</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>189</v>
+        <v>327</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D23" s="7">
-        <v>564</v>
+        <v>18799</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>11</v>
+        <v>329</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="H23" s="7">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="I23" s="7">
-        <v>1291</v>
+        <v>24131</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>11</v>
+        <v>332</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="M23" s="7">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="N23" s="7">
-        <v>1855</v>
+        <v>42929</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>10</v>
@@ -5352,13 +5401,13 @@
         <v>5492</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -5367,13 +5416,13 @@
         <v>4985</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="M24" s="7">
         <v>18</v>
@@ -5382,115 +5431,115 @@
         <v>10477</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>18799</v>
+        <v>564</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>332</v>
+        <v>31</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="H25" s="7">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="I25" s="7">
-        <v>24131</v>
+        <v>1291</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>334</v>
+        <v>216</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>335</v>
+        <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="M25" s="7">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="N25" s="7">
-        <v>42929</v>
+        <v>1855</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C26" s="7">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>44669</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>340</v>
+        <v>31</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>312</v>
+        <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="H26" s="7">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>36117</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>342</v>
+        <v>31</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>343</v>
+        <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="M26" s="7">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>80787</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>345</v>
+        <v>31</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>346</v>
+        <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5546,112 +5595,112 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="D28" s="7">
-        <v>767</v>
+        <v>45448</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>11</v>
+        <v>355</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="H28" s="7">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="I28" s="7">
-        <v>0</v>
+        <v>44238</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>11</v>
+        <v>357</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>12</v>
+        <v>358</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="M28" s="7">
-        <v>1</v>
+        <v>122</v>
       </c>
       <c r="N28" s="7">
-        <v>767</v>
+        <v>89686</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>11</v>
+        <v>361</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="D29" s="7">
-        <v>1561</v>
+        <v>35395</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="H29" s="7">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I29" s="7">
-        <v>0</v>
+        <v>35667</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>11</v>
+        <v>365</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="M29" s="7">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="N29" s="7">
-        <v>1561</v>
+        <v>71062</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>11</v>
+        <v>368</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>83</v>
+        <v>369</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>12</v>
@@ -5660,13 +5709,13 @@
         <v>9011</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="H30" s="7">
         <v>14</v>
@@ -5675,13 +5724,13 @@
         <v>11422</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>361</v>
+        <v>102</v>
       </c>
       <c r="M30" s="7">
         <v>26</v>
@@ -5690,115 +5739,115 @@
         <v>20433</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C31" s="7">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="D31" s="7">
-        <v>35395</v>
+        <v>1561</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>366</v>
+        <v>31</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="H31" s="7">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I31" s="7">
-        <v>35667</v>
+        <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>368</v>
+        <v>31</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>369</v>
+        <v>32</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="M31" s="7">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="N31" s="7">
-        <v>71062</v>
+        <v>1561</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>372</v>
+        <v>31</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C32" s="7">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>45448</v>
+        <v>767</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>375</v>
+        <v>31</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="H32" s="7">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>44238</v>
+        <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>377</v>
+        <v>31</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>378</v>
+        <v>32</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M32" s="7">
-        <v>122</v>
+        <v>1</v>
       </c>
       <c r="N32" s="7">
-        <v>89686</v>
+        <v>767</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>381</v>
+        <v>31</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5860,106 +5909,106 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>1</v>
+        <v>257</v>
       </c>
       <c r="D34" s="7">
-        <v>767</v>
+        <v>176586</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>11</v>
+        <v>255</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>259</v>
+        <v>388</v>
       </c>
       <c r="H34" s="7">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="I34" s="7">
-        <v>0</v>
+        <v>175299</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>11</v>
+        <v>389</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>12</v>
+        <v>390</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>351</v>
+        <v>391</v>
       </c>
       <c r="M34" s="7">
-        <v>1</v>
+        <v>507</v>
       </c>
       <c r="N34" s="7">
-        <v>767</v>
+        <v>351886</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>11</v>
+        <v>393</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>4</v>
+        <v>178</v>
       </c>
       <c r="D35" s="7">
-        <v>2756</v>
+        <v>121669</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>348</v>
+        <v>395</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>186</v>
+        <v>396</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="H35" s="7">
-        <v>3</v>
+        <v>157</v>
       </c>
       <c r="I35" s="7">
-        <v>2206</v>
+        <v>110619</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>86</v>
+        <v>398</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>186</v>
+        <v>399</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>314</v>
+        <v>400</v>
       </c>
       <c r="M35" s="7">
-        <v>7</v>
+        <v>335</v>
       </c>
       <c r="N35" s="7">
-        <v>4962</v>
+        <v>232288</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>41</v>
@@ -5968,13 +6017,13 @@
         <v>28471</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="H36" s="7">
         <v>46</v>
@@ -5983,13 +6032,13 @@
         <v>33133</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="M36" s="7">
         <v>87</v>
@@ -5998,115 +6047,115 @@
         <v>61604</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>397</v>
+        <v>343</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C37" s="7">
-        <v>178</v>
+        <v>4</v>
       </c>
       <c r="D37" s="7">
-        <v>121669</v>
+        <v>2756</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>400</v>
+        <v>220</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="H37" s="7">
-        <v>157</v>
+        <v>3</v>
       </c>
       <c r="I37" s="7">
-        <v>110619</v>
+        <v>2206</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>402</v>
+        <v>109</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>403</v>
+        <v>220</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="M37" s="7">
-        <v>335</v>
+        <v>7</v>
       </c>
       <c r="N37" s="7">
-        <v>232288</v>
+        <v>4962</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C38" s="7">
-        <v>257</v>
+        <v>1</v>
       </c>
       <c r="D38" s="7">
-        <v>176586</v>
+        <v>767</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>408</v>
+        <v>219</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>409</v>
+        <v>31</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="H38" s="7">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="I38" s="7">
-        <v>175299</v>
+        <v>0</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>411</v>
+        <v>31</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>412</v>
+        <v>32</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>413</v>
+        <v>385</v>
       </c>
       <c r="M38" s="7">
-        <v>507</v>
+        <v>1</v>
       </c>
       <c r="N38" s="7">
-        <v>351886</v>
+        <v>767</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>415</v>
+        <v>31</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6158,6 +6207,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -6178,8 +6232,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3988C751-6230-4E8A-9FBD-AD96EC962EDA}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868E132A-830E-4D5D-98C4-97F6D34744A3}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6195,7 +6249,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6296,106 +6350,106 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>8704</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>421</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>422</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>7165</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>424</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>425</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>15869</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>427</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>428</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>295</v>
+        <v>429</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>4855</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>430</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>431</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>2039</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>431</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>6894</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>434</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>295</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -6404,13 +6458,13 @@
         <v>754</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>44</v>
+        <v>436</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -6419,13 +6473,13 @@
         <v>4722</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -6434,115 +6488,115 @@
         <v>5477</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>363</v>
+        <v>442</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>425</v>
+        <v>443</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>4855</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>426</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>427</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>2039</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>429</v>
+        <v>31</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="M7" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>6894</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>431</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>432</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C8" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>8704</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>434</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>435</v>
+        <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="H8" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>7165</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>437</v>
+        <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>438</v>
+        <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="M8" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>15869</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>440</v>
+        <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>441</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6604,106 +6658,106 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>33938</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>447</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>448</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>29049</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>450</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>451</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>62988</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>453</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>454</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>48</v>
+        <v>455</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>22404</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>456</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>12</v>
+        <v>457</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="I11" s="7">
-        <v>1455</v>
+        <v>20642</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>45</v>
+        <v>459</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>460</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="N11" s="7">
-        <v>1455</v>
+        <v>43046</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>462</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>4</v>
@@ -6712,13 +6766,13 @@
         <v>2970</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -6727,13 +6781,13 @@
         <v>5082</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="M12" s="7">
         <v>11</v>
@@ -6742,115 +6796,115 @@
         <v>8052</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>22404</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>456</v>
+        <v>31</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>457</v>
+        <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="H13" s="7">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>20642</v>
+        <v>1455</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>459</v>
+        <v>78</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>460</v>
+        <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="M13" s="7">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>43046</v>
+        <v>1455</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>463</v>
+        <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>464</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C14" s="7">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>33938</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>416</v>
+        <v>31</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>465</v>
+        <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="H14" s="7">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>29049</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>467</v>
+        <v>31</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>468</v>
+        <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="M14" s="7">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>62988</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>470</v>
+        <v>31</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>471</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>472</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6906,112 +6960,112 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>59572</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>476</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>477</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>52</v>
+        <v>478</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>57109</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>479</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>480</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>116682</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>482</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>483</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>194</v>
+        <v>484</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="D17" s="7">
-        <v>1361</v>
+        <v>36536</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>474</v>
+        <v>35</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>485</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="I17" s="7">
-        <v>1190</v>
+        <v>41177</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>488</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="M17" s="7">
-        <v>4</v>
+        <v>117</v>
       </c>
       <c r="N17" s="7">
-        <v>2551</v>
+        <v>77713</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>48</v>
+        <v>490</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>12</v>
@@ -7020,13 +7074,13 @@
         <v>8183</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="H18" s="7">
         <v>10</v>
@@ -7035,13 +7089,13 @@
         <v>6354</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="M18" s="7">
         <v>22</v>
@@ -7050,115 +7104,115 @@
         <v>14537</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>36536</v>
+        <v>1361</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>488</v>
+        <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>140</v>
+        <v>502</v>
       </c>
       <c r="H19" s="7">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>41177</v>
+        <v>1190</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>489</v>
+        <v>503</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>490</v>
+        <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="M19" s="7">
-        <v>117</v>
+        <v>4</v>
       </c>
       <c r="N19" s="7">
-        <v>77713</v>
+        <v>2551</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>492</v>
+        <v>70</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C20" s="7">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>59572</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>495</v>
+        <v>31</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>496</v>
+        <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>497</v>
+        <v>74</v>
       </c>
       <c r="H20" s="7">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>57109</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>498</v>
+        <v>31</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>499</v>
+        <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="M20" s="7">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>116682</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>501</v>
+        <v>31</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>502</v>
+        <v>32</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>503</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7214,112 +7268,112 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>38023</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>508</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>509</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>42990</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>11</v>
+        <v>511</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>512</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>81012</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>11</v>
+        <v>514</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>12</v>
+        <v>515</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="D23" s="7">
-        <v>1789</v>
+        <v>30542</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>11</v>
+        <v>518</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="H23" s="7">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="I23" s="7">
-        <v>1413</v>
+        <v>22663</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>11</v>
+        <v>521</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="M23" s="7">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="N23" s="7">
-        <v>3202</v>
+        <v>53205</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>10</v>
@@ -7328,13 +7382,13 @@
         <v>7589</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>260</v>
+        <v>527</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -7343,13 +7397,13 @@
         <v>4644</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="M24" s="7">
         <v>17</v>
@@ -7358,115 +7412,115 @@
         <v>12234</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>30542</v>
+        <v>1789</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>523</v>
+        <v>31</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="H25" s="7">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="I25" s="7">
-        <v>22663</v>
+        <v>1413</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>526</v>
+        <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>527</v>
+        <v>107</v>
       </c>
       <c r="M25" s="7">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="N25" s="7">
-        <v>53205</v>
+        <v>3202</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C26" s="7">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>38023</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>531</v>
+        <v>31</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>532</v>
+        <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="H26" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>42990</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>534</v>
+        <v>31</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>535</v>
+        <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="M26" s="7">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>81012</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>537</v>
+        <v>31</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>538</v>
+        <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>280</v>
+        <v>543</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7522,112 +7576,112 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="D28" s="7">
-        <v>0</v>
+        <v>55088</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>11</v>
+        <v>544</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>12</v>
+        <v>545</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="H28" s="7">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I28" s="7">
-        <v>0</v>
+        <v>55558</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>11</v>
+        <v>547</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>12</v>
+        <v>548</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="M28" s="7">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="N28" s="7">
-        <v>0</v>
+        <v>110646</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>11</v>
+        <v>550</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>12</v>
+        <v>551</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>86</v>
+        <v>552</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="D29" s="7">
-        <v>713</v>
+        <v>39394</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>154</v>
+        <v>553</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>11</v>
+        <v>554</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>541</v>
+        <v>555</v>
       </c>
       <c r="H29" s="7">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="I29" s="7">
-        <v>705</v>
+        <v>41635</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>11</v>
+        <v>557</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>543</v>
+        <v>558</v>
       </c>
       <c r="M29" s="7">
-        <v>2</v>
+        <v>110</v>
       </c>
       <c r="N29" s="7">
-        <v>1419</v>
+        <v>81029</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>544</v>
+        <v>559</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>11</v>
+        <v>560</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>545</v>
+        <v>369</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>8</v>
@@ -7636,13 +7690,13 @@
         <v>6234</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>546</v>
+        <v>561</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="H30" s="7">
         <v>13</v>
@@ -7651,13 +7705,13 @@
         <v>9694</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>550</v>
+        <v>565</v>
       </c>
       <c r="M30" s="7">
         <v>21</v>
@@ -7666,115 +7720,115 @@
         <v>15928</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>551</v>
+        <v>566</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>127</v>
+        <v>567</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>552</v>
+        <v>568</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C31" s="7">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="D31" s="7">
-        <v>39394</v>
+        <v>713</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>553</v>
+        <v>179</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>554</v>
+        <v>31</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>555</v>
+        <v>569</v>
       </c>
       <c r="H31" s="7">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="I31" s="7">
-        <v>41635</v>
+        <v>705</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>556</v>
+        <v>570</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>557</v>
+        <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>558</v>
+        <v>571</v>
       </c>
       <c r="M31" s="7">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="N31" s="7">
-        <v>81029</v>
+        <v>1419</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>559</v>
+        <v>572</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>560</v>
+        <v>31</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C32" s="7">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="D32" s="7">
-        <v>55088</v>
+        <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>562</v>
+        <v>31</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>273</v>
+        <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="H32" s="7">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>55558</v>
+        <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>564</v>
+        <v>31</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>565</v>
+        <v>32</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="M32" s="7">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="N32" s="7">
-        <v>110646</v>
+        <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>567</v>
+        <v>31</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>568</v>
+        <v>32</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>533</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7836,106 +7890,106 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="D34" s="7">
-        <v>0</v>
+        <v>195326</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>11</v>
+        <v>576</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>12</v>
+        <v>577</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="H34" s="7">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="I34" s="7">
-        <v>0</v>
+        <v>191871</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>11</v>
+        <v>579</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>12</v>
+        <v>580</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="M34" s="7">
-        <v>0</v>
+        <v>541</v>
       </c>
       <c r="N34" s="7">
-        <v>0</v>
+        <v>387197</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>11</v>
+        <v>582</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>12</v>
+        <v>583</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>186</v>
+        <v>584</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>5</v>
+        <v>186</v>
       </c>
       <c r="D35" s="7">
-        <v>3864</v>
+        <v>133731</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>571</v>
+        <v>585</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>570</v>
+        <v>586</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>443</v>
+        <v>587</v>
       </c>
       <c r="H35" s="7">
-        <v>7</v>
+        <v>184</v>
       </c>
       <c r="I35" s="7">
-        <v>4763</v>
+        <v>128156</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>151</v>
+        <v>588</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>572</v>
+        <v>589</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>573</v>
+        <v>590</v>
       </c>
       <c r="M35" s="7">
-        <v>12</v>
+        <v>370</v>
       </c>
       <c r="N35" s="7">
-        <v>8626</v>
+        <v>261887</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>48</v>
+        <v>591</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>191</v>
+        <v>592</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>574</v>
+        <v>593</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>35</v>
@@ -7944,13 +7998,13 @@
         <v>25731</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>575</v>
+        <v>594</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>576</v>
+        <v>276</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>577</v>
+        <v>67</v>
       </c>
       <c r="H36" s="7">
         <v>42</v>
@@ -7959,13 +8013,13 @@
         <v>30496</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>578</v>
+        <v>595</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>579</v>
+        <v>596</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
       <c r="M36" s="7">
         <v>77</v>
@@ -7974,115 +8028,115 @@
         <v>56227</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>93</v>
+        <v>598</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>581</v>
+        <v>599</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>514</v>
+        <v>600</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C37" s="7">
-        <v>186</v>
+        <v>5</v>
       </c>
       <c r="D37" s="7">
-        <v>133731</v>
+        <v>3864</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>441</v>
+        <v>601</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>582</v>
+        <v>602</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>583</v>
+        <v>603</v>
       </c>
       <c r="H37" s="7">
-        <v>184</v>
+        <v>7</v>
       </c>
       <c r="I37" s="7">
-        <v>128156</v>
+        <v>4763</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>584</v>
+        <v>185</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>585</v>
+        <v>604</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>586</v>
+        <v>605</v>
       </c>
       <c r="M37" s="7">
-        <v>370</v>
+        <v>12</v>
       </c>
       <c r="N37" s="7">
-        <v>261887</v>
+        <v>8626</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>587</v>
+        <v>70</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>588</v>
+        <v>113</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>589</v>
+        <v>412</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C38" s="7">
-        <v>266</v>
+        <v>0</v>
       </c>
       <c r="D38" s="7">
-        <v>195326</v>
+        <v>0</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>590</v>
+        <v>31</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>591</v>
+        <v>32</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="H38" s="7">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="I38" s="7">
-        <v>191871</v>
+        <v>0</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>593</v>
+        <v>31</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>594</v>
+        <v>32</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="M38" s="7">
-        <v>541</v>
+        <v>0</v>
       </c>
       <c r="N38" s="7">
-        <v>387197</v>
+        <v>0</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>596</v>
+        <v>31</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>597</v>
+        <v>32</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>598</v>
+        <v>220</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8134,6 +8188,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A15-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A15-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C36D87B-90E4-476C-A005-7E5FCAC49A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8D9E0FA-8C35-4D30-8D35-C01D2216713B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1F5A0921-CD6D-4C25-B627-3A8D72C753FE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F8EEBBD3-1B8D-48FB-A394-948149621A1D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="599">
   <si>
     <t>Menores según frecuencia de que los padres tubiesen suficiente tiempo par él/ella en 2007 (Tasa respuesta: 46,96%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -76,28 +76,28 @@
     <t>40,36%</t>
   </si>
   <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
   </si>
   <si>
     <t>43,77%</t>
   </si>
   <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
   </si>
   <si>
     <t>42,09%</t>
   </si>
   <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
   </si>
   <si>
     <t>Casi siempre</t>
@@ -106,28 +106,28 @@
     <t>59,64%</t>
   </si>
   <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
   </si>
   <si>
     <t>49,66%</t>
   </si>
   <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
   </si>
   <si>
     <t>54,59%</t>
   </si>
   <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -145,1720 +145,1696 @@
     <t>6,56%</t>
   </si>
   <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de que los padres tubiesen suficiente tiempo par él/ella en 2012 (Tasa respuesta: 44,64%)</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de que los padres tubiesen suficiente tiempo par él/ella en 2016 (Tasa respuesta: 47,04%)</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
     <t>34,58%</t>
   </si>
   <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
   </si>
   <si>
     <t>2,81%</t>
   </si>
   <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
   </si>
   <si>
     <t>47,04%</t>
   </si>
   <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de que los padres tubiesen suficiente tiempo par él/ella en 2012 (Tasa respuesta: 44,64%)</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
   </si>
   <si>
     <t>5,08%</t>
   </si>
   <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
   </si>
   <si>
     <t>6,18%</t>
   </si>
   <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de que los padres tubiesen suficiente tiempo par él/ella en 2015 (Tasa respuesta: 47,04%)</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
+    <t>11,33%</t>
   </si>
   <si>
     <t>7,88%</t>
   </si>
   <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
   </si>
   <si>
     <t>1,08%</t>
   </si>
   <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
     <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
   </si>
 </sst>
 </file>
@@ -2270,7 +2246,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C20BB11-690B-4D99-8E8F-4EBE2078F9C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF5E94F-37A1-4330-A878-A2C122CB3D17}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3235,7 +3211,7 @@
         <v>31</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3244,13 +3220,13 @@
         <v>537</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3306,7 +3282,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3318,13 +3294,13 @@
         <v>33489</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H22" s="7">
         <v>55</v>
@@ -3333,13 +3309,13 @@
         <v>34440</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M22" s="7">
         <v>108</v>
@@ -3348,13 +3324,13 @@
         <v>67929</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3369,13 +3345,13 @@
         <v>24901</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H23" s="7">
         <v>35</v>
@@ -3384,13 +3360,13 @@
         <v>20871</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M23" s="7">
         <v>74</v>
@@ -3399,13 +3375,13 @@
         <v>45773</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>137</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3420,13 +3396,13 @@
         <v>7272</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
@@ -3435,13 +3411,13 @@
         <v>5745</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M24" s="7">
         <v>21</v>
@@ -3450,13 +3426,13 @@
         <v>13017</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3477,7 +3453,7 @@
         <v>32</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -3492,7 +3468,7 @@
         <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -3507,7 +3483,7 @@
         <v>32</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3528,7 +3504,7 @@
         <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -3543,7 +3519,7 @@
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -3558,7 +3534,7 @@
         <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3614,7 +3590,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3626,13 +3602,13 @@
         <v>44958</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H28" s="7">
         <v>53</v>
@@ -3641,13 +3617,13 @@
         <v>40625</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M28" s="7">
         <v>118</v>
@@ -3656,13 +3632,13 @@
         <v>85582</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,13 +3653,13 @@
         <v>42962</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H29" s="7">
         <v>47</v>
@@ -3692,13 +3668,13 @@
         <v>36501</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M29" s="7">
         <v>109</v>
@@ -3707,13 +3683,13 @@
         <v>79462</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>167</v>
+        <v>83</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,13 +3704,13 @@
         <v>9370</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H30" s="7">
         <v>18</v>
@@ -3743,13 +3719,13 @@
         <v>13324</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M30" s="7">
         <v>32</v>
@@ -3758,13 +3734,13 @@
         <v>22694</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3779,13 +3755,13 @@
         <v>684</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -3794,13 +3770,13 @@
         <v>683</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -3809,13 +3785,13 @@
         <v>1368</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3836,7 +3812,7 @@
         <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3851,7 +3827,7 @@
         <v>32</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -3866,7 +3842,7 @@
         <v>32</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3934,13 +3910,13 @@
         <v>163687</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H34" s="7">
         <v>235</v>
@@ -3949,13 +3925,13 @@
         <v>158176</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M34" s="7">
         <v>482</v>
@@ -3964,13 +3940,13 @@
         <v>321863</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3985,13 +3961,13 @@
         <v>139608</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H35" s="7">
         <v>189</v>
@@ -4000,13 +3976,13 @@
         <v>127755</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M35" s="7">
         <v>397</v>
@@ -4015,13 +3991,13 @@
         <v>267362</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4036,13 +4012,13 @@
         <v>36315</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H36" s="7">
         <v>46</v>
@@ -4051,13 +4027,13 @@
         <v>30881</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M36" s="7">
         <v>101</v>
@@ -4066,13 +4042,13 @@
         <v>67196</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4087,13 +4063,13 @@
         <v>2165</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>215</v>
+        <v>31</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H37" s="7">
         <v>3</v>
@@ -4102,13 +4078,13 @@
         <v>1960</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>215</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="M37" s="7">
         <v>6</v>
@@ -4120,10 +4096,10 @@
         <v>111</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>185</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4138,13 +4114,13 @@
         <v>635</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -4153,13 +4129,13 @@
         <v>537</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M38" s="7">
         <v>2</v>
@@ -4168,13 +4144,13 @@
         <v>1171</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>113</v>
+        <v>223</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4230,7 +4206,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -4251,7 +4227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8AEC5EE-49C6-43C2-9B61-3ADAF7E36FBE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24148A67-81DE-4BD0-A7F9-9314D38A912B}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4268,7 +4244,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4375,13 +4351,13 @@
         <v>7812</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -4390,13 +4366,13 @@
         <v>6063</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -4405,13 +4381,13 @@
         <v>13875</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4426,13 +4402,13 @@
         <v>2983</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -4441,13 +4417,13 @@
         <v>1539</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -4456,13 +4432,13 @@
         <v>4522</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4477,13 +4453,13 @@
         <v>3695</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>244</v>
-      </c>
       <c r="G6" s="7" t="s">
-        <v>245</v>
+        <v>27</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -4492,13 +4468,13 @@
         <v>4341</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M6" s="7">
         <v>9</v>
@@ -4507,13 +4483,13 @@
         <v>8036</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4534,7 +4510,7 @@
         <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4549,7 +4525,7 @@
         <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4564,7 +4540,7 @@
         <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4585,7 +4561,7 @@
         <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4600,7 +4576,7 @@
         <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4615,7 +4591,7 @@
         <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4683,13 +4659,13 @@
         <v>27955</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -4698,13 +4674,13 @@
         <v>31981</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M10" s="7">
         <v>85</v>
@@ -4713,13 +4689,13 @@
         <v>59936</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4734,13 +4710,13 @@
         <v>25588</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H11" s="7">
         <v>24</v>
@@ -4749,13 +4725,13 @@
         <v>17420</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M11" s="7">
         <v>62</v>
@@ -4764,13 +4740,13 @@
         <v>43008</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4785,13 +4761,13 @@
         <v>3314</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -4800,13 +4776,13 @@
         <v>2705</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="M12" s="7">
         <v>9</v>
@@ -4815,13 +4791,13 @@
         <v>6019</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4836,13 +4812,13 @@
         <v>630</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -4851,13 +4827,13 @@
         <v>916</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -4866,13 +4842,13 @@
         <v>1546</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4893,7 +4869,7 @@
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4908,7 +4884,7 @@
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4991,13 +4967,13 @@
         <v>50703</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H16" s="7">
         <v>85</v>
@@ -5006,13 +4982,13 @@
         <v>56900</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="M16" s="7">
         <v>160</v>
@@ -5021,13 +4997,13 @@
         <v>107603</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5042,13 +5018,13 @@
         <v>38905</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H17" s="7">
         <v>49</v>
@@ -5057,13 +5033,13 @@
         <v>31862</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="M17" s="7">
         <v>108</v>
@@ -5072,13 +5048,13 @@
         <v>70767</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5093,13 +5069,13 @@
         <v>6959</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="H18" s="7">
         <v>15</v>
@@ -5108,13 +5084,13 @@
         <v>9680</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="M18" s="7">
         <v>25</v>
@@ -5123,13 +5099,13 @@
         <v>16638</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5150,7 +5126,7 @@
         <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5165,7 +5141,7 @@
         <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5201,7 +5177,7 @@
         <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5216,7 +5192,7 @@
         <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5287,7 +5263,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5299,13 +5275,13 @@
         <v>44669</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H22" s="7">
         <v>55</v>
@@ -5314,13 +5290,13 @@
         <v>36117</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="M22" s="7">
         <v>124</v>
@@ -5329,13 +5305,13 @@
         <v>80787</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5350,13 +5326,13 @@
         <v>18799</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="H23" s="7">
         <v>37</v>
@@ -5365,13 +5341,13 @@
         <v>24131</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="M23" s="7">
         <v>67</v>
@@ -5380,13 +5356,13 @@
         <v>42929</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5401,13 +5377,13 @@
         <v>5492</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -5416,13 +5392,13 @@
         <v>4985</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="M24" s="7">
         <v>18</v>
@@ -5431,13 +5407,13 @@
         <v>10477</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5452,13 +5428,13 @@
         <v>564</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -5467,13 +5443,13 @@
         <v>1291</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>216</v>
+        <v>343</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -5482,13 +5458,13 @@
         <v>1855</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>351</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5509,7 +5485,7 @@
         <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5524,7 +5500,7 @@
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5539,7 +5515,7 @@
         <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5595,7 +5571,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5607,13 +5583,13 @@
         <v>45448</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="H28" s="7">
         <v>58</v>
@@ -5622,13 +5598,13 @@
         <v>44238</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="M28" s="7">
         <v>122</v>
@@ -5637,13 +5613,13 @@
         <v>89686</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5658,13 +5634,13 @@
         <v>35395</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>56</v>
+        <v>247</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="H29" s="7">
         <v>45</v>
@@ -5673,13 +5649,13 @@
         <v>35667</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>56</v>
+        <v>360</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="M29" s="7">
         <v>93</v>
@@ -5688,13 +5664,13 @@
         <v>71062</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5709,13 +5685,13 @@
         <v>9011</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="H30" s="7">
         <v>14</v>
@@ -5724,13 +5700,13 @@
         <v>11422</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
       <c r="M30" s="7">
         <v>26</v>
@@ -5739,13 +5715,13 @@
         <v>20433</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5760,13 +5736,13 @@
         <v>1561</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -5781,7 +5757,7 @@
         <v>32</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -5790,13 +5766,13 @@
         <v>1561</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5811,13 +5787,13 @@
         <v>767</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5832,7 +5808,7 @@
         <v>32</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -5841,13 +5817,13 @@
         <v>767</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>385</v>
+        <v>346</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5915,13 +5891,13 @@
         <v>176586</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>255</v>
+        <v>383</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H34" s="7">
         <v>250</v>
@@ -5930,13 +5906,13 @@
         <v>175299</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>391</v>
+        <v>320</v>
       </c>
       <c r="M34" s="7">
         <v>507</v>
@@ -5945,13 +5921,13 @@
         <v>351886</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5966,13 +5942,13 @@
         <v>121669</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="H35" s="7">
         <v>157</v>
@@ -5981,13 +5957,13 @@
         <v>110619</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>400</v>
+        <v>28</v>
       </c>
       <c r="M35" s="7">
         <v>335</v>
@@ -5996,13 +5972,13 @@
         <v>232288</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6017,13 +5993,13 @@
         <v>28471</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="H36" s="7">
         <v>46</v>
@@ -6032,13 +6008,13 @@
         <v>33133</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>408</v>
+        <v>332</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="M36" s="7">
         <v>87</v>
@@ -6047,13 +6023,13 @@
         <v>61604</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>343</v>
+        <v>404</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6068,13 +6044,13 @@
         <v>2756</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="H37" s="7">
         <v>3</v>
@@ -6086,10 +6062,10 @@
         <v>109</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="M37" s="7">
         <v>7</v>
@@ -6098,13 +6074,13 @@
         <v>4962</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6119,13 +6095,13 @@
         <v>767</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>219</v>
+        <v>411</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -6140,7 +6116,7 @@
         <v>32</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>385</v>
+        <v>346</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
@@ -6149,13 +6125,13 @@
         <v>767</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6211,7 +6187,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -6232,7 +6208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868E132A-830E-4D5D-98C4-97F6D34744A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4687C8CB-1B7D-40E8-A904-F8FA61DE41EF}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6249,7 +6225,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6356,13 +6332,13 @@
         <v>8704</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -6371,13 +6347,13 @@
         <v>7165</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -6386,13 +6362,13 @@
         <v>15869</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6407,13 +6383,13 @@
         <v>4855</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -6422,13 +6398,13 @@
         <v>2039</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -6437,13 +6413,13 @@
         <v>6894</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>139</v>
+        <v>431</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6458,13 +6434,13 @@
         <v>754</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -6473,13 +6449,13 @@
         <v>4722</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -6488,13 +6464,13 @@
         <v>5477</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6515,7 +6491,7 @@
         <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6530,7 +6506,7 @@
         <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -6545,7 +6521,7 @@
         <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>446</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6566,7 +6542,7 @@
         <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6581,7 +6557,7 @@
         <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6596,7 +6572,7 @@
         <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>446</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6664,13 +6640,13 @@
         <v>33938</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H10" s="7">
         <v>42</v>
@@ -6679,13 +6655,13 @@
         <v>29049</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="M10" s="7">
         <v>86</v>
@@ -6694,13 +6670,13 @@
         <v>62988</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6715,13 +6691,13 @@
         <v>22404</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>458</v>
+        <v>191</v>
       </c>
       <c r="H11" s="7">
         <v>29</v>
@@ -6730,13 +6706,13 @@
         <v>20642</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>461</v>
+        <v>352</v>
       </c>
       <c r="M11" s="7">
         <v>58</v>
@@ -6745,13 +6721,13 @@
         <v>43046</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6766,13 +6742,13 @@
         <v>2970</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>185</v>
+        <v>412</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>465</v>
+        <v>275</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -6781,13 +6757,13 @@
         <v>5082</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="M12" s="7">
         <v>11</v>
@@ -6796,13 +6772,13 @@
         <v>8052</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>470</v>
+        <v>177</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6823,7 +6799,7 @@
         <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -6838,7 +6814,7 @@
         <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -6847,13 +6823,13 @@
         <v>1455</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>344</v>
+        <v>468</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6874,7 +6850,7 @@
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6889,7 +6865,7 @@
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6972,13 +6948,13 @@
         <v>59572</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="H16" s="7">
         <v>86</v>
@@ -6987,13 +6963,13 @@
         <v>57109</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="M16" s="7">
         <v>170</v>
@@ -7002,13 +6978,13 @@
         <v>116682</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7023,13 +6999,13 @@
         <v>36536</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>35</v>
+        <v>479</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="H17" s="7">
         <v>63</v>
@@ -7038,13 +7014,13 @@
         <v>41177</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="M17" s="7">
         <v>117</v>
@@ -7053,13 +7029,13 @@
         <v>77713</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7077,10 +7053,10 @@
         <v>64</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="H18" s="7">
         <v>10</v>
@@ -7089,13 +7065,13 @@
         <v>6354</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="M18" s="7">
         <v>22</v>
@@ -7104,13 +7080,13 @@
         <v>14537</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7125,13 +7101,13 @@
         <v>1361</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -7140,13 +7116,13 @@
         <v>1190</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -7158,10 +7134,10 @@
         <v>70</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7197,7 +7173,7 @@
         <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7212,7 +7188,7 @@
         <v>32</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7268,7 +7244,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7280,13 +7256,13 @@
         <v>38023</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="H22" s="7">
         <v>67</v>
@@ -7295,13 +7271,13 @@
         <v>42990</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="M22" s="7">
         <v>122</v>
@@ -7310,13 +7286,13 @@
         <v>81012</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7331,13 +7307,13 @@
         <v>30542</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="H23" s="7">
         <v>35</v>
@@ -7346,13 +7322,13 @@
         <v>22663</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="M23" s="7">
         <v>77</v>
@@ -7361,13 +7337,13 @@
         <v>53205</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7382,13 +7358,13 @@
         <v>7589</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -7397,13 +7373,13 @@
         <v>4644</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="M24" s="7">
         <v>17</v>
@@ -7412,13 +7388,13 @@
         <v>12234</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>534</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7433,13 +7409,13 @@
         <v>1789</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -7448,13 +7424,13 @@
         <v>1413</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>107</v>
+        <v>532</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -7463,13 +7439,13 @@
         <v>3202</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>540</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7490,7 +7466,7 @@
         <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -7505,7 +7481,7 @@
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -7520,7 +7496,7 @@
         <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7576,7 +7552,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7588,13 +7564,13 @@
         <v>55088</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>545</v>
+        <v>450</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="H28" s="7">
         <v>72</v>
@@ -7603,13 +7579,13 @@
         <v>55558</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="M28" s="7">
         <v>145</v>
@@ -7618,13 +7594,13 @@
         <v>110646</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7639,13 +7615,13 @@
         <v>39394</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="H29" s="7">
         <v>55</v>
@@ -7654,13 +7630,13 @@
         <v>41635</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="M29" s="7">
         <v>110</v>
@@ -7669,13 +7645,13 @@
         <v>81029</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>369</v>
+        <v>554</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7690,13 +7666,13 @@
         <v>6234</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="H30" s="7">
         <v>13</v>
@@ -7705,13 +7681,13 @@
         <v>9694</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="M30" s="7">
         <v>21</v>
@@ -7720,13 +7696,13 @@
         <v>15928</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>566</v>
+        <v>372</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7741,13 +7717,13 @@
         <v>713</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -7756,13 +7732,13 @@
         <v>705</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -7771,13 +7747,13 @@
         <v>1419</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7798,7 +7774,7 @@
         <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -7813,7 +7789,7 @@
         <v>32</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -7896,13 +7872,13 @@
         <v>195326</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="H34" s="7">
         <v>275</v>
@@ -7911,13 +7887,13 @@
         <v>191871</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="M34" s="7">
         <v>541</v>
@@ -7926,13 +7902,13 @@
         <v>387197</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>583</v>
+        <v>120</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7947,13 +7923,13 @@
         <v>133731</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="H35" s="7">
         <v>184</v>
@@ -7962,13 +7938,13 @@
         <v>128156</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>588</v>
+        <v>165</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>590</v>
+        <v>295</v>
       </c>
       <c r="M35" s="7">
         <v>370</v>
@@ -7977,13 +7953,13 @@
         <v>261887</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7998,13 +7974,13 @@
         <v>25731</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>276</v>
+        <v>585</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>67</v>
+        <v>586</v>
       </c>
       <c r="H36" s="7">
         <v>42</v>
@@ -8013,13 +7989,13 @@
         <v>30496</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="M36" s="7">
         <v>77</v>
@@ -8028,13 +8004,13 @@
         <v>56227</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8049,13 +8025,13 @@
         <v>3864</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="H37" s="7">
         <v>7</v>
@@ -8064,13 +8040,13 @@
         <v>4763</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>604</v>
+        <v>214</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="M37" s="7">
         <v>12</v>
@@ -8082,10 +8058,10 @@
         <v>70</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>113</v>
+        <v>223</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>412</v>
+        <v>597</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8106,7 +8082,7 @@
         <v>32</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -8121,7 +8097,7 @@
         <v>32</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -8136,7 +8112,7 @@
         <v>32</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8192,7 +8168,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
